--- a/os/windows/office/excel/エクセル_サンプル_フィルター時に大項目・中項目を表示_セル結合しない.xlsx
+++ b/os/windows/office/excel/エクセル_サンプル_フィルター時に大項目・中項目を表示_セル結合しない.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\horih\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FABB62F1-886C-4AA2-AC89-82EB2653ADFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D8B76ED-8E97-4CA2-BD6A-4F638393C085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1890" yWindow="1635" windowWidth="25320" windowHeight="15240" xr2:uid="{FFE46C06-2C4D-44AD-89C5-85002ABF199A}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="25350" windowHeight="15240" xr2:uid="{FFE46C06-2C4D-44AD-89C5-85002ABF199A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -200,37 +200,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>大分類、中分類の空白箇所だけ選択(検索と選択→条件を選択してジャンプ→空白セル)</t>
-    <rPh sb="0" eb="3">
-      <t>ダイブンルイ</t>
-    </rPh>
-    <rPh sb="4" eb="7">
-      <t>チュウブンルイ</t>
-    </rPh>
-    <rPh sb="8" eb="12">
-      <t>クウハクカショ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ジョウケン</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>クウハク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>表を作成し、大分類・中分類の表示しない部分は空白(罫線は内枠もすべて設定)</t>
     <rPh sb="0" eb="1">
       <t>ヒョウ</t>
@@ -332,6 +301,52 @@
       <t>ジョウブ</t>
     </rPh>
     <rPh sb="36" eb="38">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大分類、中分類の空白箇所だけ選択(検索と選択→条件を選択してジャンプ→空白セル)し、上のセルの値を設定(アクティブセルがC3の場合、=C2を設定)</t>
+    <rPh sb="0" eb="3">
+      <t>ダイブンルイ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>チュウブンルイ</t>
+    </rPh>
+    <rPh sb="8" eb="12">
+      <t>クウハクカショ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>クウハク</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
       <t>セッテイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -599,33 +614,9 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="1">
     <dxf>
-      <numFmt numFmtId="179" formatCode=";;;"/>
-      <border>
-        <top/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="179" formatCode=";;;"/>
-      <border>
-        <top/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="179" formatCode=";;;"/>
-      <border>
-        <top/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="179" formatCode=";;;"/>
+      <numFmt numFmtId="176" formatCode=";;;"/>
       <border>
         <top/>
         <vertical/>
@@ -971,7 +962,7 @@
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="2:8" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
@@ -991,7 +982,7 @@
         <v>2</v>
       </c>
       <c r="H3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.4">
@@ -1013,7 +1004,7 @@
         <v>3</v>
       </c>
       <c r="H4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.4">
@@ -1034,7 +1025,7 @@
         <v>4</v>
       </c>
       <c r="H5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.4">
@@ -1056,7 +1047,7 @@
         <v>5</v>
       </c>
       <c r="H6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.4">

--- a/os/windows/office/excel/エクセル_サンプル_フィルター時に大項目・中項目を表示_セル結合しない.xlsx
+++ b/os/windows/office/excel/エクセル_サンプル_フィルター時に大項目・中項目を表示_セル結合しない.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\horih\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D8B76ED-8E97-4CA2-BD6A-4F638393C085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4288FB0E-A5B5-45BF-97F9-DB911DD960B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="25350" windowHeight="15240" xr2:uid="{FFE46C06-2C4D-44AD-89C5-85002ABF199A}"/>
+    <workbookView xWindow="1635" yWindow="3750" windowWidth="27345" windowHeight="13185" xr2:uid="{FFE46C06-2C4D-44AD-89C5-85002ABF199A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="68">
   <si>
     <t>大分類</t>
     <rPh sb="0" eb="3">
@@ -349,6 +349,217 @@
     <rPh sb="70" eb="72">
       <t>セッテイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=0KYecZBfOyo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0. 初期状態</t>
+    <rPh sb="3" eb="7">
+      <t>ショキジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>罫線は全て引いておく</t>
+    <rPh sb="0" eb="2">
+      <t>ケイセン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対象の項目のある行を選択し、ホームの検索と選択から→条件を選択してジャンプ</t>
+    <rPh sb="0" eb="2">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>空白セル を選択しOKボタン</t>
+    <rPh sb="0" eb="2">
+      <t>クウハク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ctrl ＋ Enter で全ての空白セルが[式=一つ上のセル]となる</t>
+    <rPh sb="14" eb="15">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>クウハク</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>シキ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ウエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.1と同じ範囲を選択し、Ctrl + C → Ctrl + Shift + V で式だったところに実際の値が入る</t>
+    <rPh sb="4" eb="5">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>シキ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ジッサイ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>ハイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>この場合C35にカーソルがあるので、式で一つ上のセルを選択[ =C34 ]</t>
+    <rPh sb="2" eb="4">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>シキ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新しいルールで「数式を使用して、書式設定するセルを決定」を選択</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対象の項目のある行を選択し、ツールバー条件付き書式から新しいルールを選択</t>
+    <rPh sb="19" eb="22">
+      <t>ジョウケンツ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ショシキ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-を対象外にする場合↓</t>
+    <rPh sb="2" eb="5">
+      <t>タイショウガイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>=AND(B64&lt;&gt;"-",B64=B63,SUBTOTAL(3,B63)&gt;0)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -356,7 +567,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -372,6 +583,15 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -381,7 +601,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -561,13 +781,61 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -610,11 +878,70 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="6">
+    <dxf>
+      <numFmt numFmtId="176" formatCode=";;;"/>
+      <border>
+        <top/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode=";;;"/>
+      <border>
+        <top/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode=";;;"/>
+      <border>
+        <top/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode=";;;"/>
+      <border>
+        <top/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode=";;;"/>
+      <border>
+        <top/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <numFmt numFmtId="176" formatCode=";;;"/>
       <border>
@@ -634,6 +961,137 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="テキスト ボックス 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CB564D3-CB0A-33A4-C804-04D96E58A176}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="7962900"/>
+          <a:ext cx="2400300" cy="2867025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="テキスト ボックス 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB02826A-CAD9-BE53-474B-BB1DF2DD0920}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="15182850"/>
+          <a:ext cx="2400300" cy="2867025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -933,9 +1391,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A551BD0B-D5AB-4208-B7DE-A71EEE531AE1}">
-  <dimension ref="B1:H14"/>
+  <dimension ref="B1:H75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="J73" sqref="J73"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -944,7 +1404,9 @@
     <col min="4" max="4" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="1" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B1" s="13"/>
+    </row>
     <row r="2" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -1097,6 +1559,9 @@
       <c r="E9" s="9" t="s">
         <v>31</v>
       </c>
+      <c r="H9" s="14" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B10" s="7" t="str">
@@ -1175,14 +1640,806 @@
         <v>36</v>
       </c>
     </row>
+    <row r="17" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B17" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B18" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B20" s="7"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B21" s="7"/>
+      <c r="C21" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B22" s="7"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B23" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B24" s="7"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B25" s="7"/>
+      <c r="C25" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B26" s="7"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B27" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B28" s="7"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B29" s="7"/>
+      <c r="C29" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B30" s="10"/>
+      <c r="C30" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B32" s="13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B33" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B34" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="H34" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B35" s="7" t="str">
+        <f>B34</f>
+        <v>AAA</v>
+      </c>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G35" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="H35" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B36" s="7"/>
+      <c r="C36" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G36" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="H36" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B37" s="7"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G37" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H37" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B38" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G38" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="H38" s="13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B39" s="7"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B40" s="7"/>
+      <c r="C40" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B41" s="7"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B42" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B43" s="7"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B44" s="7"/>
+      <c r="C44" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B45" s="10"/>
+      <c r="C45" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E45" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B47" s="13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B48" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C48" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D48" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E48" s="17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B49" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B50" s="7" t="str">
+        <f t="shared" ref="B50:B51" si="6">B49</f>
+        <v>AAA</v>
+      </c>
+      <c r="C50" s="8" t="str">
+        <f>C49</f>
+        <v>aaa</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B51" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v>AAA</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B52" s="7" t="str">
+        <f t="shared" ref="B52:C52" si="7">B51</f>
+        <v>AAA</v>
+      </c>
+      <c r="C52" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>bbb</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B53" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B54" s="7" t="str">
+        <f t="shared" ref="B54:B55" si="8">B53</f>
+        <v>BBB</v>
+      </c>
+      <c r="C54" s="8" t="str">
+        <f>C53</f>
+        <v>ccc</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B55" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>BBB</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E55" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B56" s="7" t="str">
+        <f t="shared" ref="B56:C56" si="9">B55</f>
+        <v>BBB</v>
+      </c>
+      <c r="C56" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>ddd</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B57" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B58" s="7" t="str">
+        <f t="shared" ref="B58:B60" si="10">B57</f>
+        <v>CCC</v>
+      </c>
+      <c r="C58" s="8" t="str">
+        <f>C57</f>
+        <v>eee</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B59" s="7" t="str">
+        <f t="shared" si="10"/>
+        <v>CCC</v>
+      </c>
+      <c r="C59" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B60" s="10" t="str">
+        <f t="shared" si="10"/>
+        <v>CCC</v>
+      </c>
+      <c r="C60" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D60" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E60" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B62" s="13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B63" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C63" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D63" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E63" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="G63" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="H63" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B64" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G64" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="H64" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B65" s="7" t="str">
+        <f t="shared" ref="B65:B67" si="11">B64</f>
+        <v>AAA</v>
+      </c>
+      <c r="C65" s="8" t="str">
+        <f>C64</f>
+        <v>aaa</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E65" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H65" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B66" s="7" t="str">
+        <f t="shared" si="11"/>
+        <v>AAA</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E66" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H66" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B67" s="7" t="str">
+        <f t="shared" si="11"/>
+        <v>AAA</v>
+      </c>
+      <c r="C67" s="8" t="str">
+        <f t="shared" ref="C67" si="12">C66</f>
+        <v>bbb</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E67" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H67" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B68" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E68" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H68" s="13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B69" s="7" t="str">
+        <f t="shared" ref="B69:B71" si="13">B68</f>
+        <v>BBB</v>
+      </c>
+      <c r="C69" s="8" t="str">
+        <f>C68</f>
+        <v>ccc</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E69" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B70" s="7" t="str">
+        <f t="shared" si="13"/>
+        <v>BBB</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D70" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E70" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B71" s="7" t="str">
+        <f t="shared" si="13"/>
+        <v>BBB</v>
+      </c>
+      <c r="C71" s="8" t="str">
+        <f t="shared" ref="C71" si="14">C70</f>
+        <v>ddd</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E71" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B72" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D72" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E72" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B73" s="7" t="str">
+        <f t="shared" ref="B73:B75" si="15">B72</f>
+        <v>CCC</v>
+      </c>
+      <c r="C73" s="8" t="str">
+        <f>C72</f>
+        <v>eee</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E73" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="74" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B74" s="7" t="str">
+        <f t="shared" si="15"/>
+        <v>CCC</v>
+      </c>
+      <c r="C74" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D74" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E74" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="75" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B75" s="10" t="str">
+        <f t="shared" si="15"/>
+        <v>CCC</v>
+      </c>
+      <c r="C75" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D75" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E75" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="B2:E14" xr:uid="{A551BD0B-D5AB-4208-B7DE-A71EEE531AE1}"/>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B3:C14">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="3" priority="6">
       <formula>AND(B3=B2,SUBTOTAL(3,B2)&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="B64:C75">
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>AND(B64&lt;&gt;"-",B64=B63,SUBTOTAL(3,B63)&gt;0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="H9" r:id="rId1" xr:uid="{2CBA5151-781B-4D37-BA16-0E65B205968C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>